--- a/example.xlsx
+++ b/example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM27"/>
+  <dimension ref="A1:CM28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7961,6 +7965,14 @@
       </c>
       <c r="CM27">
         <v>128.39999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
